--- a/Fleet Management Transportation & Logistics.xlsx
+++ b/Fleet Management Transportation & Logistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analyst 1122-2023\Project\2022\Data Analyst\Excel\[YT] Other Level's\Fleet Management Transportation &amp; Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D4C70-BA16-40C7-A5BD-B0083AE30610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F320479F-07A7-4CB8-B680-678472856242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{DF08BCE9-890A-3941-8C5A-795D1E6F1FC0}"/>
   </bookViews>
@@ -1102,11 +1102,11 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFAF4DF"/>
       <color rgb="FFCBCBCB"/>
       <color rgb="FFDCDADA"/>
       <color rgb="FFEFEFF4"/>
       <color rgb="FFED7A2B"/>
-      <color rgb="FFFAF4DF"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFB90E0A"/>
       <color rgb="FFAC0000"/>
@@ -8830,7 +8830,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11032684" y="669526"/>
+          <a:off x="11032684" y="867646"/>
           <a:ext cx="2564040" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8952,14 +8952,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>89084</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604624</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>99443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>122264</xdr:colOff>
+      <xdr:colOff>185524</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>188049</xdr:rowOff>
     </xdr:to>
@@ -9002,8 +9002,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12890684" y="693803"/>
-          <a:ext cx="642780" cy="1277326"/>
+          <a:off x="12796624" y="891923"/>
+          <a:ext cx="800100" cy="1277326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9042,8 +9042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11032684" y="1081550"/>
-          <a:ext cx="1545856" cy="299857"/>
+          <a:off x="11032684" y="1092436"/>
+          <a:ext cx="1545856" cy="304211"/>
           <a:chOff x="10241280" y="901679"/>
           <a:chExt cx="1584960" cy="304211"/>
         </a:xfrm>
@@ -9209,8 +9209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11040116" y="1797682"/>
-          <a:ext cx="853118" cy="302034"/>
+          <a:off x="11040116" y="1817276"/>
+          <a:ext cx="853118" cy="304211"/>
           <a:chOff x="10220021" y="1626519"/>
           <a:chExt cx="874699" cy="304211"/>
         </a:xfrm>
@@ -9376,8 +9376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="881072" y="4984556"/>
-          <a:ext cx="1800000" cy="1432985"/>
+          <a:off x="881072" y="5038985"/>
+          <a:ext cx="1800000" cy="1448225"/>
           <a:chOff x="937544" y="4558925"/>
           <a:chExt cx="1800000" cy="1448225"/>
         </a:xfrm>
@@ -9479,7 +9479,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="881072" y="5101090"/>
+                <a:off x="881072" y="5299210"/>
                 <a:ext cx="1800000" cy="1188000"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9520,7 +9520,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65732</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:to>
@@ -9537,8 +9537,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="881072" y="1841274"/>
-          <a:ext cx="1013460" cy="917167"/>
+          <a:off x="881072" y="1860868"/>
+          <a:ext cx="1298248" cy="928053"/>
           <a:chOff x="937544" y="2737167"/>
           <a:chExt cx="1013460" cy="928053"/>
         </a:xfrm>
@@ -9640,8 +9640,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="881072" y="1912621"/>
-                <a:ext cx="776956" cy="678180"/>
+                <a:off x="881072" y="2110741"/>
+                <a:ext cx="995285" cy="678180"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -9868,8 +9868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12302341" y="2625937"/>
-          <a:ext cx="1093619" cy="302034"/>
+          <a:off x="12302341" y="2654240"/>
+          <a:ext cx="1093619" cy="304211"/>
           <a:chOff x="12302341" y="2456120"/>
           <a:chExt cx="1093619" cy="304211"/>
         </a:xfrm>
@@ -10199,8 +10199,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12302341" y="2925416"/>
-          <a:ext cx="1248714" cy="299857"/>
+          <a:off x="12302341" y="2955896"/>
+          <a:ext cx="1248714" cy="304211"/>
           <a:chOff x="12302341" y="2757776"/>
           <a:chExt cx="1248714" cy="304211"/>
         </a:xfrm>
@@ -10368,8 +10368,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12302341" y="3256342"/>
-          <a:ext cx="1248714" cy="299856"/>
+          <a:off x="12302341" y="3291176"/>
+          <a:ext cx="1248714" cy="304211"/>
           <a:chOff x="12302341" y="2757776"/>
           <a:chExt cx="1248714" cy="304211"/>
         </a:xfrm>
@@ -10773,8 +10773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2782960" y="513479"/>
-          <a:ext cx="8050860" cy="6489301"/>
+          <a:off x="2782960" y="517833"/>
+          <a:ext cx="8050860" cy="6561147"/>
           <a:chOff x="2782960" y="319713"/>
           <a:chExt cx="8050860" cy="6561147"/>
         </a:xfrm>
@@ -14146,8 +14146,8 @@
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>583892</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
@@ -14164,8 +14164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="881072" y="2827021"/>
-          <a:ext cx="922020" cy="1137557"/>
+          <a:off x="881072" y="2857501"/>
+          <a:ext cx="1077268" cy="1150620"/>
           <a:chOff x="937260" y="2476500"/>
           <a:chExt cx="922020" cy="1150620"/>
         </a:xfrm>
@@ -14204,8 +14204,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="881072" y="2918461"/>
-                <a:ext cx="836296" cy="891540"/>
+                <a:off x="881072" y="3116581"/>
+                <a:ext cx="977110" cy="891540"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -14308,7 +14308,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>393392</xdr:colOff>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -14325,14 +14325,14 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="881072" y="4040778"/>
-          <a:ext cx="1341120" cy="911133"/>
+          <a:off x="881072" y="4084321"/>
+          <a:ext cx="1374448" cy="922019"/>
           <a:chOff x="899444" y="3688081"/>
           <a:chExt cx="1341120" cy="922019"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="86" name="Distance Traveled">
@@ -14355,7 +14355,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -14365,8 +14365,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="881072" y="4137660"/>
-                <a:ext cx="952500" cy="670560"/>
+                <a:off x="881072" y="4335780"/>
+                <a:ext cx="976170" cy="670560"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -14467,6 +14467,79 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Oval 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092DBD73-2680-6866-8D81-9456D03B4FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12976860" y="1013460"/>
+          <a:ext cx="594360" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FAF4DF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="38100" dist="952500" dir="5400000" algn="t" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15582,10 +15655,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{682726B7-196F-4330-B783-AC48594D4B91}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B54:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84B3CA73-A180-45D7-83E5-8B2677C475B2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -15698,7 +15771,7 @@
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0">
@@ -16101,10 +16174,594 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Expenses" fld="21" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="Count of N" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C923D3-CD29-4C55-8BC3-CE36DCFD141A}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="B78:D91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16120,7 +16777,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7665242-FF3B-48E2-A85F-B8616D465BA6}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B121:E135" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="26">
@@ -16704,564 +17361,7 @@
     <dataField name="Count of Distance Traveled" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFE4A3D2-C815-407B-9B08-AE4C467A5022}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B115:C116" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17278,563 +17378,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CEEA488-D46B-42FC-BC7F-538FECB6095E}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B109:C110" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Driver Salary" fld="16" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Buddy Salary" fld="17" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBB3539F-CECD-41A9-BA6D-BF794E103CCD}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="B36:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
@@ -18398,7 +17941,7 @@
     <dataField name="Sum of Expenses" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" selected="0">
@@ -18407,7 +17950,546 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{682726B7-196F-4330-B783-AC48594D4B91}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B54:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Expenses" fld="21" baseField="0" baseItem="0" numFmtId="179"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18424,6 +18506,551 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B112387-820B-45F6-B9DD-9E22185E4A60}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="19"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Hired Transportation" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C506509B-7287-44A9-9F35-6F044330FFDA}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B59:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
@@ -18946,7 +19573,7 @@
     <dataField name="Sum of Total Salaries" fld="22" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18962,11 +19589,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84B3CA73-A180-45D7-83E5-8B2677C475B2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CEEA488-D46B-42FC-BC7F-538FECB6095E}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B109:C110" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -19074,8 +19701,17 @@
     </pivotField>
     <pivotField numFmtId="179" showAll="0"/>
     <pivotField numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -19478,581 +20114,6 @@
   <rowItems count="1">
     <i/>
   </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of N" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C923D3-CD29-4C55-8BC3-CE36DCFD141A}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="B78:D91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
   <colFields count="1">
     <field x="-2"/>
   </colFields>
@@ -20065,11 +20126,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Driver Salary" fld="16" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Buddy Salary" fld="17" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20086,563 +20147,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135A5B1B-990D-472E-B718-7FEE63952B06}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B19:D23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Driver wage/trip" fld="14" subtotal="average" baseField="9" baseItem="0"/>
-    <dataField name="Average of Buddy wage/trip" fld="15" subtotal="average" baseField="9" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6AFE5C3-DED7-4123-9819-568EBC4DB06B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B10:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
@@ -21190,9 +20694,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77BB641-3EEE-4E3C-BAD4-7D8FB40703FB}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B65:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFE4A3D2-C815-407B-9B08-AE4C467A5022}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B115:C116" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
@@ -21300,16 +20804,25 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0">
       <items count="369">
         <item x="0"/>
@@ -21706,17 +21219,571 @@
   <rowItems count="1">
     <i/>
   </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4ADC6D6-5591-43C7-9499-0EF97EAD1822}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B28:C31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Wage's" fld="23" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="Count of Goods" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -22284,8 +22351,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B112387-820B-45F6-B9DD-9E22185E4A60}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77BB641-3EEE-4E3C-BAD4-7D8FB40703FB}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B65:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
@@ -22324,7 +22391,13 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
@@ -22392,17 +22465,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0">
       <items count="369">
         <item x="0"/>
@@ -22796,26 +22863,20 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="19"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Hired Transportation" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Wage's" fld="23" baseField="0" baseItem="0" numFmtId="179"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -22829,8 +22890,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4ADC6D6-5591-43C7-9499-0EF97EAD1822}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B28:C31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135A5B1B-990D-472E-B718-7FEE63952B06}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B19:D23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
@@ -22891,7 +22952,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -22931,15 +22992,15 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
@@ -23342,24 +23403,36 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="13"/>
+    <field x="9"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Goods" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Average of Driver wage/trip" fld="14" subtotal="average" baseField="9" baseItem="0"/>
+    <dataField name="Average of Buddy wage/trip" fld="15" subtotal="average" baseField="9" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -23855,7 +23928,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -25422,9 +25495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D38112-C589-434F-AD13-73100167FF15}">
   <dimension ref="B2:P139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26771,7 +26842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522ADEF6-C22B-4D19-9534-1BC29F0E2D56}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Fleet Management Transportation & Logistics.xlsx
+++ b/Fleet Management Transportation & Logistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analyst 1122-2023\Project\2022\Data Analyst\Excel\[YT] Other Level's\Fleet Management Transportation &amp; Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F320479F-07A7-4CB8-B680-678472856242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FC32B8-4D3E-4971-A13D-AF40DDC91C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{DF08BCE9-890A-3941-8C5A-795D1E6F1FC0}"/>
   </bookViews>
@@ -9521,155 +9521,150 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149668</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="Group 46">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFA0220-4499-326F-4473-7A69BA2C124E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16FC489-7840-49ED-967F-D088B92A9097}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="881072" y="1860868"/>
-          <a:ext cx="1298248" cy="928053"/>
-          <a:chOff x="937544" y="2737167"/>
-          <a:chExt cx="1013460" cy="928053"/>
+          <a:ext cx="1298248" cy="270000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16FC489-7840-49ED-967F-D088B92A9097}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="937544" y="2737167"/>
-            <a:ext cx="1013460" cy="270000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="B90E0A"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Driver</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0">
               <a:solidFill>
                 <a:srgbClr val="B90E0A"/>
               </a:solidFill>
               <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="49" name="Driver">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256DE25A-9B45-448E-9FA8-47EC3DB67F60}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGraphicFramePr/>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="937544" y="2987040"/>
-              <a:ext cx="776956" cy="678180"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-                <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Driver"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-        </mc:Choice>
-        <mc:Fallback xmlns="">
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="0" name=""/>
-              <xdr:cNvSpPr>
-                <a:spLocks noTextEdit="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="881072" y="2110741"/>
-                <a:ext cx="995285" cy="678180"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
+            </a:rPr>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="B90E0A"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271471</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597871</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="49" name="Driver">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256DE25A-9B45-448E-9FA8-47EC3DB67F60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Driver"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="881071" y="2110741"/>
+              <a:ext cx="936000" cy="678180"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
               <a:solidFill>
-                <a:prstClr val="white"/>
+                <a:prstClr val="green"/>
               </a:solidFill>
-              <a:ln w="1">
-                <a:solidFill>
-                  <a:prstClr val="green"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-                  <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </xdr:grpSp>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11448,7 +11443,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3520440" y="1881975"/>
+              <a:off x="3520440" y="1883445"/>
               <a:ext cx="1234440" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -11516,10 +11511,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="5987650" y="1525255"/>
-            <a:ext cx="2061770" cy="957995"/>
-            <a:chOff x="5987650" y="1525255"/>
-            <a:chExt cx="2061770" cy="957995"/>
+            <a:off x="5940560" y="1525255"/>
+            <a:ext cx="2093620" cy="957995"/>
+            <a:chOff x="5940560" y="1525255"/>
+            <a:chExt cx="2093620" cy="957995"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -11535,7 +11530,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5987650" y="1525255"/>
+              <a:off x="5940560" y="1525255"/>
               <a:ext cx="1833880" cy="880746"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -11590,7 +11585,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6061220" y="1535099"/>
+              <a:off x="5992640" y="1535099"/>
               <a:ext cx="1600200" cy="273731"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -11655,7 +11650,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6061220" y="1881975"/>
+              <a:off x="5992640" y="1883445"/>
               <a:ext cx="1234440" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -11723,7 +11718,7 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="6789420" y="1619250"/>
+            <a:off x="6774180" y="1619250"/>
             <a:ext cx="1260000" cy="864000"/>
           </xdr:xfrm>
           <a:graphic>
@@ -11745,7 +11740,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7097540" y="1883445"/>
+              <a:off x="7082300" y="1883445"/>
               <a:ext cx="712960" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -11950,7 +11945,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8408180" y="1881975"/>
+              <a:off x="8408180" y="1883445"/>
               <a:ext cx="1234440" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -12180,8 +12175,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3053470" y="5850089"/>
-              <a:ext cx="1002520" cy="304211"/>
+              <a:off x="3053950" y="5850089"/>
+              <a:ext cx="877970" cy="304211"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -12245,8 +12240,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3038710" y="6198538"/>
-              <a:ext cx="649370" cy="335611"/>
+              <a:off x="3061570" y="6188898"/>
+              <a:ext cx="596030" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -12503,8 +12498,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4378525" y="5850089"/>
-              <a:ext cx="800100" cy="304211"/>
+              <a:off x="4370905" y="5850089"/>
+              <a:ext cx="734495" cy="304211"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -12568,7 +12563,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4617720" y="6214238"/>
+              <a:off x="4617720" y="6204598"/>
               <a:ext cx="594360" cy="304211"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -12633,7 +12628,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4379830" y="6175678"/>
+              <a:off x="4378525" y="6188898"/>
               <a:ext cx="359810" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -12899,8 +12894,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5457140" y="5850089"/>
-              <a:ext cx="1043940" cy="304211"/>
+              <a:off x="5533340" y="5850089"/>
+              <a:ext cx="905560" cy="304211"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -12964,7 +12959,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5836920" y="6214238"/>
+              <a:off x="5806440" y="6204598"/>
               <a:ext cx="632460" cy="304211"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -13029,8 +13024,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5562600" y="6198538"/>
-              <a:ext cx="396240" cy="335611"/>
+              <a:off x="5556200" y="6188898"/>
+              <a:ext cx="288340" cy="335611"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -14061,7 +14056,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>481720</xdr:colOff>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>68253</xdr:rowOff>
     </xdr:from>
@@ -14084,8 +14079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3529720" y="6209973"/>
-          <a:ext cx="447920" cy="304211"/>
+          <a:off x="3535680" y="6408093"/>
+          <a:ext cx="441960" cy="304211"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14142,161 +14137,234 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>271472</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561872</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="19" name="Trip Classify">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2227B951-39D5-4E73-AA7F-6D0EF6ABEF11}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Trip Classify"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="881072" y="3116581"/>
+              <a:ext cx="900000" cy="891540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271472</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155701</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="Group 113">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rectangle: Rounded Corners 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C6765E-66F5-42F4-6639-EADDC54E6E9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACC5B94-E11F-475D-918B-D04BD9D33346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="881072" y="2857501"/>
-          <a:ext cx="1077268" cy="1150620"/>
-          <a:chOff x="937260" y="2476500"/>
-          <a:chExt cx="922020" cy="1150620"/>
+          <a:ext cx="1077268" cy="270000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="19" name="Trip Classify">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2227B951-39D5-4E73-AA7F-6D0EF6ABEF11}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGraphicFramePr/>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="937260" y="2735580"/>
-              <a:ext cx="836296" cy="891540"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-                <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Trip Classify"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-        </mc:Choice>
-        <mc:Fallback xmlns="">
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="0" name=""/>
-              <xdr:cNvSpPr>
-                <a:spLocks noTextEdit="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="881072" y="3116581"/>
-                <a:ext cx="977110" cy="891540"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:prstClr val="white"/>
-              </a:solidFill>
-              <a:ln w="1">
-                <a:solidFill>
-                  <a:prstClr val="green"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-                  <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="Rectangle: Rounded Corners 110">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACC5B94-E11F-475D-918B-D04BD9D33346}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="937260" y="2476500"/>
-            <a:ext cx="922020" cy="270000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="B90E0A"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Trip Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0">
               <a:solidFill>
                 <a:srgbClr val="B90E0A"/>
               </a:solidFill>
               <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>Trip Range</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="B90E0A"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271472</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597872</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="86" name="Distance Traveled">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE67D20-5202-474D-A76D-67E1BEA3A68B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Distance Traveled"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="881072" y="4335780"/>
+              <a:ext cx="936000" cy="670560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -14309,164 +14377,81 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>193801</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="115" name="Group 114">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rectangle: Rounded Corners 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C159C839-8ECA-8DA9-683F-AFD19D046C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0F090C-588C-4930-A563-C1949B1E3F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="881072" y="4084321"/>
-          <a:ext cx="1374448" cy="922019"/>
-          <a:chOff x="899444" y="3688081"/>
-          <a:chExt cx="1341120" cy="922019"/>
+          <a:ext cx="1374448" cy="270000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-          <xdr:graphicFrame macro="">
-            <xdr:nvGraphicFramePr>
-              <xdr:cNvPr id="86" name="Distance Traveled">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE67D20-5202-474D-A76D-67E1BEA3A68B}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGraphicFramePr/>
-            </xdr:nvGraphicFramePr>
-            <xdr:xfrm>
-              <a:off x="899444" y="3939540"/>
-              <a:ext cx="952500" cy="670560"/>
-            </xdr:xfrm>
-            <a:graphic>
-              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-                <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Distance Traveled"/>
-              </a:graphicData>
-            </a:graphic>
-          </xdr:graphicFrame>
-        </mc:Choice>
-        <mc:Fallback>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="0" name=""/>
-              <xdr:cNvSpPr>
-                <a:spLocks noTextEdit="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="881072" y="4335780"/>
-                <a:ext cx="976170" cy="670560"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:prstClr val="white"/>
-              </a:solidFill>
-              <a:ln w="1">
-                <a:solidFill>
-                  <a:prstClr val="green"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-                  <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="Rectangle: Rounded Corners 112">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0F090C-588C-4930-A563-C1949B1E3F4D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="899444" y="3688081"/>
-            <a:ext cx="1341120" cy="270000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="B90E0A"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Trip</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="B90E0A"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Type</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0">
               <a:solidFill>
                 <a:srgbClr val="B90E0A"/>
               </a:solidFill>
               <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>Trip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="B90E0A"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Type</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="B90E0A"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -15655,10 +15640,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84B3CA73-A180-45D7-83E5-8B2677C475B2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6AFE5C3-DED7-4123-9819-568EBC4DB06B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B10:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -15717,7 +15702,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -16167,14 +16152,28 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of N" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Trip Classify" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16189,595 +16188,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C923D3-CD29-4C55-8BC3-CE36DCFD141A}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="B78:D91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7665242-FF3B-48E2-A85F-B8616D465BA6}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B121:E135" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="26">
@@ -17361,6 +16771,1149 @@
     <dataField name="Count of Distance Traveled" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCB7F2FD-2EC1-4A9E-BB9D-D620C4DD0B6A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="B101:D104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Distance (km)" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Count of Distance Traveled" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4C923D3-CD29-4C55-8BC3-CE36DCFD141A}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="B78:D91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
     <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -17377,7 +17930,2199 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77BB641-3EEE-4E3C-BAD4-7D8FB40703FB}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B65:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Wage's" fld="23" baseField="0" baseItem="0" numFmtId="179"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135A5B1B-990D-472E-B718-7FEE63952B06}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B19:D23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Driver wage/trip" fld="14" subtotal="average" baseField="9" baseItem="0"/>
+    <dataField name="Average of Buddy wage/trip" fld="15" subtotal="average" baseField="9" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C506509B-7287-44A9-9F35-6F044330FFDA}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B59:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Salaries" fld="22" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFE4A3D2-C815-407B-9B08-AE4C467A5022}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B115:C116" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBB3539F-CECD-41A9-BA6D-BF794E103CCD}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="B36:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
@@ -17941,7 +20686,7 @@
     <dataField name="Sum of Expenses" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" selected="0">
@@ -17950,7 +20695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17966,11 +20711,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{682726B7-196F-4330-B783-AC48594D4B91}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B54:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84B3CA73-A180-45D7-83E5-8B2677C475B2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -18083,7 +20828,7 @@
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0">
@@ -18486,13 +21231,8 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Expenses" fld="21" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="Count of N" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -18505,7 +21245,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B112387-820B-45F6-B9DD-9E22185E4A60}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
@@ -19050,546 +21790,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C506509B-7287-44A9-9F35-6F044330FFDA}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B59:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Salaries" fld="22" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CEEA488-D46B-42FC-BC7F-538FECB6095E}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B109:C110" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
@@ -20130,7 +22331,7 @@
     <dataField name="Sum of Buddy Salary" fld="17" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20146,1112 +22347,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6AFE5C3-DED7-4123-9819-568EBC4DB06B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B10:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Trip Classify" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFE4A3D2-C815-407B-9B08-AE4C467A5022}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B115:C116" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Driver wage/trip" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Buddy wage/trip" fld="15" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4ADC6D6-5591-43C7-9499-0EF97EAD1822}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B28:C31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
@@ -21796,563 +22892,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCB7F2FD-2EC1-4A9E-BB9D-D620C4DD0B6A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="B101:D104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Distance (km)" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Count of Distance Traveled" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F77BB641-3EEE-4E3C-BAD4-7D8FB40703FB}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B65:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{682726B7-196F-4330-B783-AC48594D4B91}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B54:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="177" showAll="0">
@@ -22467,9 +23009,9 @@
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0">
       <items count="369">
         <item x="0"/>
@@ -22870,570 +23412,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Wage's" fld="23" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="Sum of Total Expenses" fld="21" baseField="0" baseItem="0" numFmtId="179"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135A5B1B-990D-472E-B718-7FEE63952B06}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B19:D23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="177" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField dataField="1" numFmtId="179" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Driver wage/trip" fld="14" subtotal="average" baseField="9" baseItem="0"/>
-    <dataField name="Average of Buddy wage/trip" fld="15" subtotal="average" baseField="9" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -25495,13 +25480,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D38112-C589-434F-AD13-73100167FF15}">
   <dimension ref="B2:P139"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
